--- a/2024-results/short-term-runs/2024 Shortterm Only Results.xlsx
+++ b/2024-results/short-term-runs/2024 Shortterm Only Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.brodziak\Desktop\2024 WCNPO MLS Rebuilding\2024 Results\short-term-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.brodziak\Desktop\2024 WCNPO MLS Rebuilding\2024-results\short-term-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA32BE3-ACCD-4591-9969-CB8859AEAB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEA204-859D-4759-9439-FDE3174ECA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1783" yWindow="1680" windowWidth="12343" windowHeight="6977" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catch" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="135">
   <si>
     <t>Age</t>
   </si>
@@ -316,13 +316,7 @@
     <t>QREBUILD4 CATCH TRAJECTORIES</t>
   </si>
   <si>
-    <t>Constant F Rebuild</t>
-  </si>
-  <si>
     <t>Constant Quota Rebuild</t>
-  </si>
-  <si>
-    <t>Contant Quota Rebuild</t>
   </si>
   <si>
     <r>
@@ -409,15 +403,6 @@
     <t>Probability of Overfishing</t>
   </si>
   <si>
-    <t>Constant F Rebuild  Catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Quota Rebuild Catch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Fmsy Catch </t>
-  </si>
-  <si>
     <t>Average 2025-2034</t>
   </si>
   <si>
@@ -425,12 +410,6 @@
   </si>
   <si>
     <t>Percent of Maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Quota Rebuild </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant Fmsy </t>
   </si>
   <si>
     <t>Apr</t>
@@ -473,6 +452,21 @@
   </si>
   <si>
     <t>WCNPO Striped Marlin Rebuilding Scenarios Under Short-term Recruitment</t>
+  </si>
+  <si>
+    <t>Constant F</t>
+  </si>
+  <si>
+    <t>Constant Catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fmsy </t>
+  </si>
+  <si>
+    <t>Contant Catch</t>
+  </si>
+  <si>
+    <t>Rebuilding Scenarios Under Short-term Recruitment</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1071,7 @@
   <sheetData>
     <row r="1" spans="1:65" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="18" x14ac:dyDescent="0.45">
@@ -1090,7 +1084,7 @@
     </row>
     <row r="4" spans="1:65" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -1102,7 +1096,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
@@ -1115,7 +1109,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X4" s="65"/>
       <c r="Y4" s="65"/>
@@ -1132,7 +1126,7 @@
     </row>
     <row r="5" spans="1:65" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="66" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
@@ -1144,7 +1138,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="67" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
@@ -1157,7 +1151,7 @@
       <c r="U5" s="43"/>
       <c r="V5" s="13"/>
       <c r="W5" s="66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X5" s="66"/>
       <c r="Y5" s="66"/>
@@ -1177,25 +1171,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1203,25 +1197,25 @@
         <v>22</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
@@ -1230,25 +1224,25 @@
         <v>22</v>
       </c>
       <c r="X6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="Z6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA6" s="30" t="s">
         <v>68</v>
       </c>
       <c r="AB6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AD6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
@@ -5019,7 +5013,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
@@ -5060,7 +5054,7 @@
     </row>
     <row r="4" spans="1:62" s="4" customFormat="1" ht="26.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="66" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -5072,7 +5066,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="66" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -5084,7 +5078,7 @@
       <c r="T4" s="27"/>
       <c r="U4" s="13"/>
       <c r="V4" s="66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
@@ -5135,25 +5129,25 @@
         <v>22</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -5161,25 +5155,25 @@
         <v>22</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T5" s="25"/>
       <c r="U5" s="13"/>
@@ -5187,25 +5181,25 @@
         <v>22</v>
       </c>
       <c r="W5" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="30" t="s">
         <v>68</v>
       </c>
       <c r="AA5" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AB5" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>73</v>
@@ -8965,7 +8959,7 @@
   <sheetData>
     <row r="1" spans="1:72" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9047,7 +9041,7 @@
     </row>
     <row r="5" spans="1:72" ht="21.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="66" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
@@ -9057,7 +9051,7 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="L5" s="67" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
@@ -9067,7 +9061,7 @@
       <c r="R5" s="67"/>
       <c r="S5" s="67"/>
       <c r="U5" s="66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V5" s="66"/>
       <c r="W5" s="66"/>
@@ -9079,7 +9073,7 @@
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AL5" s="63"/>
       <c r="AM5" s="63"/>
@@ -9089,78 +9083,78 @@
         <v>22</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="X6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Z6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="AB6" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL6" s="65"/>
       <c r="AM6" s="65"/>
@@ -12324,61 +12318,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection sqref="A1:I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="11.921875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.4609375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="4.61328125" style="13" customWidth="1"/>
     <col min="6" max="9" width="11.69140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.45" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="70" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
       <c r="F3" s="70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
       <c r="I3" s="70"/>
     </row>
-    <row r="4" spans="1:9" ht="46.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="31.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -12803,16 +12797,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028C4F4E-E025-48AF-AFA4-D088B40154CA}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:N21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="12" customWidth="1"/>
     <col min="2" max="4" width="10.69140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="3.69140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="11" style="12" customWidth="1"/>
     <col min="7" max="9" width="10.69140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.23046875" style="24"/>
+    <col min="10" max="10" width="4.23046875" style="24" customWidth="1"/>
     <col min="11" max="11" width="10.3046875" style="24" customWidth="1"/>
     <col min="12" max="14" width="9.53515625" style="24" customWidth="1"/>
     <col min="15" max="16384" width="9.23046875" style="24"/>
@@ -12820,7 +12816,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F1" s="51"/>
     </row>
@@ -12830,7 +12826,7 @@
     </row>
     <row r="3" spans="1:14" ht="20.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
@@ -12848,43 +12844,43 @@
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
     </row>
-    <row r="4" spans="1:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="42.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -13462,7 +13458,7 @@
     </row>
     <row r="19" spans="1:14" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B19" s="48">
         <f>AVERAGE(B9:B18)</f>
@@ -13478,7 +13474,7 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G19" s="48">
         <f>AVERAGE(G9:G18)</f>
@@ -13493,7 +13489,7 @@
         <v>1833.9099999999999</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L19" s="57">
         <f>AVERAGE(L9:L18)</f>
@@ -13510,7 +13506,7 @@
     </row>
     <row r="20" spans="1:14" ht="36.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B20" s="48">
         <f>SUM(B9:B18)</f>
@@ -13526,7 +13522,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G20" s="48">
         <f>SUM(G9:G18)</f>
@@ -13547,7 +13543,7 @@
     </row>
     <row r="21" spans="1:14" ht="35.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B21" s="49">
         <f>B20/MAX($B20:$C20)</f>
@@ -13563,7 +13559,7 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G21" s="49">
         <f>G20/MAX($G20:$H20)</f>
@@ -13625,7 +13621,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -13648,7 +13644,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -13668,7 +13664,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -13792,16 +13788,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -13823,31 +13819,31 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -28449,7 +28445,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -28472,7 +28468,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -28492,7 +28488,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -28616,16 +28612,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -28673,31 +28669,31 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>102</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>103</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>104</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>105</v>
-      </c>
-      <c r="J23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -43299,7 +43295,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -43322,7 +43318,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>2024</v>
@@ -43342,7 +43338,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -43466,16 +43462,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -43497,31 +43493,31 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
